--- a/TimHuynh - MovieRecommender/App_Data/MovieListImport.xlsx
+++ b/TimHuynh - MovieRecommender/App_Data/MovieListImport.xlsx
@@ -191,13 +191,15 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="A1:C16"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,12 +397,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C16"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -423,12 +425,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C16"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
